--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.1975436192544</v>
+        <v>7.572976999999999</v>
       </c>
       <c r="H2">
-        <v>6.1975436192544</v>
+        <v>22.718931</v>
       </c>
       <c r="I2">
-        <v>0.4369771482100512</v>
+        <v>0.4497670593913077</v>
       </c>
       <c r="J2">
-        <v>0.4369771482100512</v>
+        <v>0.4497670593913078</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.8227860038808</v>
+        <v>261.380203</v>
       </c>
       <c r="N2">
-        <v>47.8227860038808</v>
+        <v>784.1406089999999</v>
       </c>
       <c r="O2">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="P2">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="Q2">
-        <v>296.3838022533201</v>
+        <v>1979.426265574331</v>
       </c>
       <c r="R2">
-        <v>296.3838022533201</v>
+        <v>17814.83639016898</v>
       </c>
       <c r="S2">
-        <v>0.1663236591655985</v>
+        <v>0.3134281444342755</v>
       </c>
       <c r="T2">
-        <v>0.1663236591655985</v>
+        <v>0.3134281444342755</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.1975436192544</v>
+        <v>7.572976999999999</v>
       </c>
       <c r="H3">
-        <v>6.1975436192544</v>
+        <v>22.718931</v>
       </c>
       <c r="I3">
-        <v>0.4369771482100512</v>
+        <v>0.4497670593913077</v>
       </c>
       <c r="J3">
-        <v>0.4369771482100512</v>
+        <v>0.4497670593913078</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.9201308328135</v>
+        <v>31.999428</v>
       </c>
       <c r="N3">
-        <v>31.9201308328135</v>
+        <v>95.998284</v>
       </c>
       <c r="O3">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826334</v>
       </c>
       <c r="P3">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826335</v>
       </c>
       <c r="Q3">
-        <v>197.8264031686689</v>
+        <v>242.330932257156</v>
       </c>
       <c r="R3">
-        <v>197.8264031686689</v>
+        <v>2180.978390314404</v>
       </c>
       <c r="S3">
-        <v>0.1110155514722073</v>
+        <v>0.03837138859746848</v>
       </c>
       <c r="T3">
-        <v>0.1110155514722073</v>
+        <v>0.0383713885974685</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.1975436192544</v>
+        <v>7.572976999999999</v>
       </c>
       <c r="H4">
-        <v>6.1975436192544</v>
+        <v>22.718931</v>
       </c>
       <c r="I4">
-        <v>0.4369771482100512</v>
+        <v>0.4497670593913077</v>
       </c>
       <c r="J4">
-        <v>0.4369771482100512</v>
+        <v>0.4497670593913078</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.9004507531747</v>
+        <v>81.69901900000001</v>
       </c>
       <c r="N4">
-        <v>45.9004507531747</v>
+        <v>245.097057</v>
       </c>
       <c r="O4">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945166</v>
       </c>
       <c r="P4">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945167</v>
       </c>
       <c r="Q4">
-        <v>284.4700456862387</v>
+        <v>618.7047918095629</v>
       </c>
       <c r="R4">
-        <v>284.4700456862387</v>
+        <v>5568.343126286067</v>
       </c>
       <c r="S4">
-        <v>0.1596379375722453</v>
+        <v>0.09796752635956373</v>
       </c>
       <c r="T4">
-        <v>0.1596379375722453</v>
+        <v>0.09796752635956375</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.74708419421314</v>
+        <v>2.784025666666667</v>
       </c>
       <c r="H5">
-        <v>2.74708419421314</v>
+        <v>8.352077</v>
       </c>
       <c r="I5">
-        <v>0.1936917415717327</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="J5">
-        <v>0.1936917415717327</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.8227860038808</v>
+        <v>261.380203</v>
       </c>
       <c r="N5">
-        <v>47.8227860038808</v>
+        <v>784.1406089999999</v>
       </c>
       <c r="O5">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="P5">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="Q5">
-        <v>131.3732195544983</v>
+        <v>727.6891939105436</v>
       </c>
       <c r="R5">
-        <v>131.3732195544983</v>
+        <v>6549.202745194892</v>
       </c>
       <c r="S5">
-        <v>0.07372357877369444</v>
+        <v>0.1152244353522704</v>
       </c>
       <c r="T5">
-        <v>0.07372357877369444</v>
+        <v>0.1152244353522704</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.74708419421314</v>
+        <v>2.784025666666667</v>
       </c>
       <c r="H6">
-        <v>2.74708419421314</v>
+        <v>8.352077</v>
       </c>
       <c r="I6">
-        <v>0.1936917415717327</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="J6">
-        <v>0.1936917415717327</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.9201308328135</v>
+        <v>31.999428</v>
       </c>
       <c r="N6">
-        <v>31.9201308328135</v>
+        <v>95.998284</v>
       </c>
       <c r="O6">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826334</v>
       </c>
       <c r="P6">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826335</v>
       </c>
       <c r="Q6">
-        <v>87.68728688803748</v>
+        <v>89.08722887065198</v>
       </c>
       <c r="R6">
-        <v>87.68728688803748</v>
+        <v>801.785059835868</v>
       </c>
       <c r="S6">
-        <v>0.0492080549160936</v>
+        <v>0.01410633238698506</v>
       </c>
       <c r="T6">
-        <v>0.0492080549160936</v>
+        <v>0.01410633238698506</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.74708419421314</v>
+        <v>2.784025666666667</v>
       </c>
       <c r="H7">
-        <v>2.74708419421314</v>
+        <v>8.352077</v>
       </c>
       <c r="I7">
-        <v>0.1936917415717327</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="J7">
-        <v>0.1936917415717327</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.9004507531747</v>
+        <v>81.69901900000001</v>
       </c>
       <c r="N7">
-        <v>45.9004507531747</v>
+        <v>245.097057</v>
       </c>
       <c r="O7">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945166</v>
       </c>
       <c r="P7">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945167</v>
       </c>
       <c r="Q7">
-        <v>126.0924027713048</v>
+        <v>227.4521658374877</v>
       </c>
       <c r="R7">
-        <v>126.0924027713048</v>
+        <v>2047.069492537389</v>
       </c>
       <c r="S7">
-        <v>0.07076010788194464</v>
+        <v>0.03601544120428052</v>
       </c>
       <c r="T7">
-        <v>0.07076010788194464</v>
+        <v>0.03601544120428053</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.23813584966867</v>
+        <v>6.480551000000001</v>
       </c>
       <c r="H8">
-        <v>5.23813584966867</v>
+        <v>19.441653</v>
       </c>
       <c r="I8">
-        <v>0.3693311102182161</v>
+        <v>0.3848867316651562</v>
       </c>
       <c r="J8">
-        <v>0.3693311102182161</v>
+        <v>0.3848867316651562</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.8227860038808</v>
+        <v>261.380203</v>
       </c>
       <c r="N8">
-        <v>47.8227860038808</v>
+        <v>784.1406089999999</v>
       </c>
       <c r="O8">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="P8">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="Q8">
-        <v>250.5022497979612</v>
+        <v>1693.887735931853</v>
       </c>
       <c r="R8">
-        <v>250.5022497979612</v>
+        <v>15244.98962338668</v>
       </c>
       <c r="S8">
-        <v>0.1405760048249904</v>
+        <v>0.268215138490674</v>
       </c>
       <c r="T8">
-        <v>0.1405760048249904</v>
+        <v>0.2682151384906741</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.23813584966867</v>
+        <v>6.480551000000001</v>
       </c>
       <c r="H9">
-        <v>5.23813584966867</v>
+        <v>19.441653</v>
       </c>
       <c r="I9">
-        <v>0.3693311102182161</v>
+        <v>0.3848867316651562</v>
       </c>
       <c r="J9">
-        <v>0.3693311102182161</v>
+        <v>0.3848867316651562</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.9201308328135</v>
+        <v>31.999428</v>
       </c>
       <c r="N9">
-        <v>31.9201308328135</v>
+        <v>95.998284</v>
       </c>
       <c r="O9">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826334</v>
       </c>
       <c r="P9">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826335</v>
       </c>
       <c r="Q9">
-        <v>167.2019816414746</v>
+        <v>207.373925124828</v>
       </c>
       <c r="R9">
-        <v>167.2019816414746</v>
+        <v>1866.365326123452</v>
       </c>
       <c r="S9">
-        <v>0.09382984223469916</v>
+        <v>0.03283619384380978</v>
       </c>
       <c r="T9">
-        <v>0.09382984223469916</v>
+        <v>0.03283619384380979</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.23813584966867</v>
+        <v>6.480551000000001</v>
       </c>
       <c r="H10">
-        <v>5.23813584966867</v>
+        <v>19.441653</v>
       </c>
       <c r="I10">
-        <v>0.3693311102182161</v>
+        <v>0.3848867316651562</v>
       </c>
       <c r="J10">
-        <v>0.3693311102182161</v>
+        <v>0.3848867316651562</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.9004507531747</v>
+        <v>81.69901900000001</v>
       </c>
       <c r="N10">
-        <v>45.9004507531747</v>
+        <v>245.097057</v>
       </c>
       <c r="O10">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945166</v>
       </c>
       <c r="P10">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945167</v>
       </c>
       <c r="Q10">
-        <v>240.4327966061557</v>
+        <v>529.4546592794692</v>
       </c>
       <c r="R10">
-        <v>240.4327966061557</v>
+        <v>4765.091933515222</v>
       </c>
       <c r="S10">
-        <v>0.1349252631585266</v>
+        <v>0.08383539933067237</v>
       </c>
       <c r="T10">
-        <v>0.1349252631585266</v>
+        <v>0.08383539933067238</v>
       </c>
     </row>
   </sheetData>
